--- a/User_Study/GraphLite_Evaluation/GraphLite User Study Data.xlsx
+++ b/User_Study/GraphLite_Evaluation/GraphLite User Study Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="233">
   <si>
     <t>Participant ID</t>
   </si>
@@ -525,7 +525,7 @@
     <t>[0],[1]</t>
   </si>
   <si>
-    <t>[0%],[12.5%]</t>
+    <t>[0],[12.5]</t>
   </si>
   <si>
     <t>[7],[4]</t>
@@ -537,7 +537,7 @@
     <t>[0,1]</t>
   </si>
   <si>
-    <t>[0.00%,20.00%]</t>
+    <t>[0.00,20.00]</t>
   </si>
   <si>
     <t>[5],[3]</t>
@@ -546,7 +546,7 @@
     <t>[5],[4]</t>
   </si>
   <si>
-    <t>[0%],[25%]</t>
+    <t>[0],[25]</t>
   </si>
   <si>
     <t>[3],[6]</t>
@@ -555,7 +555,7 @@
     <t>[3],[7]</t>
   </si>
   <si>
-    <t>[0.00%,14.29%]</t>
+    <t>[0.00,14.29]</t>
   </si>
   <si>
     <t>[8],[5]</t>
@@ -564,7 +564,7 @@
     <t>[1],[1]</t>
   </si>
   <si>
-    <t>[12.5%],[20%]</t>
+    <t>[12.5],[20]</t>
   </si>
   <si>
     <t>[4],[5]</t>
@@ -573,16 +573,13 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[0.00%,0.00%]</t>
+    <t>[0.00,0.00]</t>
   </si>
   <si>
     <t>[0],[0]</t>
   </si>
   <si>
-    <t>[0%],[0%]</t>
-  </si>
-  <si>
-    <t>[0.00%,12.50%]</t>
+    <t>[0.00,12.50]</t>
   </si>
   <si>
     <t>[5],[5]</t>
@@ -591,7 +588,7 @@
     <t>[1],[0]</t>
   </si>
   <si>
-    <t>[25%],[0%]</t>
+    <t>[25],[0]</t>
   </si>
   <si>
     <t>[6],[4]</t>
@@ -600,34 +597,34 @@
     <t>[1,1]</t>
   </si>
   <si>
-    <t>[16.67%,25.00%]</t>
+    <t>[16.67,25.00]</t>
   </si>
   <si>
     <t>[4],[6]</t>
   </si>
   <si>
-    <t>[0.00%,16.67%]</t>
+    <t>[0.00,16.67]</t>
   </si>
   <si>
-    <t>[33.3%],[0%]</t>
+    <t>[33.3],[0]</t>
   </si>
   <si>
-    <t>[0%],[20%]</t>
+    <t>[0],[20]</t>
   </si>
   <si>
     <t>[7],[9]</t>
   </si>
   <si>
-    <t>[16.67%],[28.57%]</t>
+    <t>[16.67],[28.57]</t>
   </si>
   <si>
-    <t>[25%],[20%]</t>
+    <t>[25],[20]</t>
   </si>
   <si>
     <t>[4],[4]</t>
   </si>
   <si>
-    <t>[20.00%,25.00%]</t>
+    <t>[20.00,25.00]</t>
   </si>
   <si>
     <t>SM-Line Trend</t>
@@ -38134,7 +38131,7 @@
         <v>185</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>48</v>
@@ -38149,7 +38146,7 @@
         <v>171</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40">
@@ -38160,13 +38157,13 @@
         <v>182</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>35</v>
@@ -38175,13 +38172,13 @@
         <v>173</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="41">
@@ -38198,7 +38195,7 @@
         <v>185</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>18</v>
@@ -38230,7 +38227,7 @@
         <v>185</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>50</v>
@@ -38271,13 +38268,13 @@
         <v>182</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>171</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44">
@@ -38288,13 +38285,13 @@
         <v>176</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>49</v>
@@ -38320,13 +38317,13 @@
         <v>182</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>118</v>
@@ -38335,13 +38332,13 @@
         <v>173</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="46">
@@ -38352,13 +38349,13 @@
         <v>165</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>41</v>
@@ -38454,7 +38451,7 @@
         <v>185</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>129</v>
@@ -38469,7 +38466,7 @@
         <v>171</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50">
@@ -38486,7 +38483,7 @@
         <v>180</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>134</v>
@@ -38495,13 +38492,13 @@
         <v>173</v>
       </c>
       <c r="J50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="51">
@@ -38550,7 +38547,7 @@
         <v>185</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>138</v>
@@ -38591,13 +38588,13 @@
         <v>182</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>171</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54">
@@ -38608,13 +38605,13 @@
         <v>176</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>32</v>
@@ -38629,7 +38626,7 @@
         <v>171</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55">
@@ -38640,13 +38637,13 @@
         <v>182</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>142</v>
@@ -38655,13 +38652,13 @@
         <v>173</v>
       </c>
       <c r="J55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="56">
@@ -38774,7 +38771,7 @@
         <v>185</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>38</v>
@@ -38789,7 +38786,7 @@
         <v>171</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60">
@@ -38800,13 +38797,13 @@
         <v>182</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>61</v>
@@ -38815,13 +38812,13 @@
         <v>173</v>
       </c>
       <c r="J60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="61">
@@ -38838,7 +38835,7 @@
         <v>185</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>31</v>
@@ -38859,35 +38856,35 @@
     <row r="66">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="6"/>
       <c r="G66" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="6"/>
       <c r="L66" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R66" s="6"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="6"/>
       <c r="V66" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W66" s="6"/>
     </row>
@@ -38899,7 +38896,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -38910,7 +38907,7 @@
         <v>77</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -38921,7 +38918,7 @@
         <v>77</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -38932,7 +38929,7 @@
         <v>77</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -38943,7 +38940,7 @@
         <v>77</v>
       </c>
       <c r="W67" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68">
@@ -38976,7 +38973,7 @@
         <v>79</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C69" s="5">
         <v>21.9</v>
@@ -38987,7 +38984,7 @@
         <v>79</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H69" s="7">
         <v>12.9</v>
@@ -38998,7 +38995,7 @@
         <v>79</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M69" s="7">
         <v>21.2</v>
@@ -39009,7 +39006,7 @@
         <v>79</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R69" s="7">
         <v>19.8</v>
@@ -39020,7 +39017,7 @@
         <v>79</v>
       </c>
       <c r="V69" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W69" s="7">
         <v>6.2</v>
@@ -39031,7 +39028,7 @@
         <v>17</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70" s="5">
         <v>22.1</v>
@@ -39042,7 +39039,7 @@
         <v>17</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H70" s="7">
         <v>7.9</v>
@@ -39053,7 +39050,7 @@
         <v>17</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M70" s="7">
         <v>21.3</v>
@@ -39064,7 +39061,7 @@
         <v>17</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R70" s="7">
         <v>18.1</v>
@@ -39075,7 +39072,7 @@
         <v>17</v>
       </c>
       <c r="V70" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W70" s="7">
         <v>5.8</v>
@@ -39086,7 +39083,7 @@
         <v>36</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="5">
         <v>20.0</v>
@@ -39097,7 +39094,7 @@
         <v>36</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H71" s="7">
         <v>2.5</v>
@@ -39108,7 +39105,7 @@
         <v>36</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M71" s="7">
         <v>18.3</v>
@@ -39119,7 +39116,7 @@
         <v>36</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R71" s="7">
         <v>20.1</v>
@@ -39130,7 +39127,7 @@
         <v>36</v>
       </c>
       <c r="V71" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W71" s="7">
         <v>5.8</v>
@@ -39141,7 +39138,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72" s="5">
         <v>17.7</v>
@@ -39152,7 +39149,7 @@
         <v>48</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H72" s="7">
         <v>10.0</v>
@@ -39163,7 +39160,7 @@
         <v>48</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M72" s="7">
         <v>19.1</v>
@@ -39174,7 +39171,7 @@
         <v>48</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R72" s="7">
         <v>20.6</v>
@@ -39185,7 +39182,7 @@
         <v>48</v>
       </c>
       <c r="V72" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W72" s="7">
         <v>7.5</v>
@@ -39196,7 +39193,7 @@
         <v>35</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73" s="5">
         <v>20.9</v>
@@ -39207,7 +39204,7 @@
         <v>35</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H73" s="7">
         <v>12.0</v>
@@ -39218,7 +39215,7 @@
         <v>35</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M73" s="7">
         <v>18.4</v>
@@ -39229,7 +39226,7 @@
         <v>35</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R73" s="7">
         <v>17.5</v>
@@ -39240,7 +39237,7 @@
         <v>35</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W73" s="7">
         <v>6.8</v>
@@ -39251,7 +39248,7 @@
         <v>18</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="5">
         <v>19.3</v>
@@ -39262,7 +39259,7 @@
         <v>18</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H74" s="7">
         <v>5.9</v>
@@ -39273,7 +39270,7 @@
         <v>18</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M74" s="7">
         <v>16.6</v>
@@ -39284,7 +39281,7 @@
         <v>18</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R74" s="7">
         <v>20.8</v>
@@ -39295,7 +39292,7 @@
         <v>18</v>
       </c>
       <c r="V74" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W74" s="7">
         <v>6.0</v>
@@ -39306,7 +39303,7 @@
         <v>50</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75" s="5">
         <v>24.4</v>
@@ -39317,7 +39314,7 @@
         <v>50</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H75" s="7">
         <v>3.3</v>
@@ -39328,7 +39325,7 @@
         <v>50</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M75" s="7">
         <v>20.7</v>
@@ -39339,7 +39336,7 @@
         <v>50</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R75" s="7">
         <v>17.1</v>
@@ -39350,7 +39347,7 @@
         <v>50</v>
       </c>
       <c r="V75" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W75" s="7">
         <v>8.0</v>
@@ -39361,7 +39358,7 @@
         <v>24</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" s="5">
         <v>24.1</v>
@@ -39372,7 +39369,7 @@
         <v>24</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H76" s="7">
         <v>6.1</v>
@@ -39383,7 +39380,7 @@
         <v>24</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M76" s="7">
         <v>20.4</v>
@@ -39394,7 +39391,7 @@
         <v>24</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R76" s="7">
         <v>17.0</v>
@@ -39405,7 +39402,7 @@
         <v>24</v>
       </c>
       <c r="V76" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W76" s="7">
         <v>9.1</v>
@@ -39416,7 +39413,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C77" s="5">
         <v>23.0</v>
@@ -39427,7 +39424,7 @@
         <v>49</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H77" s="7">
         <v>11.5</v>
@@ -39438,7 +39435,7 @@
         <v>49</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M77" s="7">
         <v>17.3</v>
@@ -39449,7 +39446,7 @@
         <v>49</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R77" s="7">
         <v>18.6</v>
@@ -39460,7 +39457,7 @@
         <v>49</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W77" s="7">
         <v>6.6</v>
@@ -39471,7 +39468,7 @@
         <v>118</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" s="5">
         <v>19.6</v>
@@ -39482,7 +39479,7 @@
         <v>118</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H78" s="7">
         <v>0.0</v>
@@ -39493,7 +39490,7 @@
         <v>118</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M78" s="7">
         <v>21.8</v>
@@ -39504,7 +39501,7 @@
         <v>118</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R78" s="7">
         <v>17.2</v>
@@ -39515,7 +39512,7 @@
         <v>118</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W78" s="7">
         <v>6.1</v>
@@ -39526,7 +39523,7 @@
         <v>41</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" s="5">
         <v>23.5</v>
@@ -39537,7 +39534,7 @@
         <v>41</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H79" s="7">
         <v>12.2</v>
@@ -39548,7 +39545,7 @@
         <v>41</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M79" s="7">
         <v>21.6</v>
@@ -39559,7 +39556,7 @@
         <v>41</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R79" s="7">
         <v>16.6</v>
@@ -39570,7 +39567,7 @@
         <v>41</v>
       </c>
       <c r="V79" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W79" s="7">
         <v>8.1</v>
@@ -39581,7 +39578,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C80" s="5">
         <v>22.8</v>
@@ -39592,7 +39589,7 @@
         <v>123</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H80" s="7">
         <v>8.4</v>
@@ -39603,7 +39600,7 @@
         <v>123</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M80" s="7">
         <v>18.6</v>
@@ -39614,7 +39611,7 @@
         <v>123</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R80" s="7">
         <v>17.2</v>
@@ -39625,7 +39622,7 @@
         <v>123</v>
       </c>
       <c r="V80" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W80" s="7">
         <v>6.0</v>
@@ -39636,7 +39633,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C81" s="5">
         <v>24.3</v>
@@ -39647,7 +39644,7 @@
         <v>124</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H81" s="7">
         <v>12.1</v>
@@ -39658,7 +39655,7 @@
         <v>124</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M81" s="7">
         <v>16.6</v>
@@ -39669,7 +39666,7 @@
         <v>124</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R81" s="7">
         <v>14.7</v>
@@ -39680,7 +39677,7 @@
         <v>124</v>
       </c>
       <c r="V81" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W81" s="7">
         <v>8.3</v>
@@ -39691,7 +39688,7 @@
         <v>129</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C82" s="5">
         <v>18.5</v>
@@ -39702,7 +39699,7 @@
         <v>129</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H82" s="7">
         <v>5.8</v>
@@ -39713,7 +39710,7 @@
         <v>129</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M82" s="7">
         <v>18.1</v>
@@ -39724,7 +39721,7 @@
         <v>129</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R82" s="7">
         <v>19.0</v>
@@ -39735,7 +39732,7 @@
         <v>129</v>
       </c>
       <c r="V82" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W82" s="7">
         <v>7.5</v>
@@ -39746,7 +39743,7 @@
         <v>134</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83" s="5">
         <v>19.5</v>
@@ -39757,7 +39754,7 @@
         <v>134</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H83" s="7">
         <v>13.8</v>
@@ -39768,7 +39765,7 @@
         <v>134</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M83" s="7">
         <v>20.8</v>
@@ -39779,7 +39776,7 @@
         <v>134</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R83" s="7">
         <v>16.2</v>
@@ -39790,7 +39787,7 @@
         <v>134</v>
       </c>
       <c r="V83" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W83" s="7">
         <v>8.2</v>
@@ -39801,7 +39798,7 @@
         <v>44</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" s="5">
         <v>19.5</v>
@@ -39812,7 +39809,7 @@
         <v>44</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H84" s="7">
         <v>8.8</v>
@@ -39823,7 +39820,7 @@
         <v>44</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M84" s="7">
         <v>20.4</v>
@@ -39834,7 +39831,7 @@
         <v>44</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R84" s="7">
         <v>20.3</v>
@@ -39845,7 +39842,7 @@
         <v>44</v>
       </c>
       <c r="V84" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W84" s="7">
         <v>8.3</v>
@@ -39856,7 +39853,7 @@
         <v>138</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C85" s="5">
         <v>20.3</v>
@@ -39867,7 +39864,7 @@
         <v>138</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H85" s="7">
         <v>11.3</v>
@@ -39878,7 +39875,7 @@
         <v>138</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M85" s="7">
         <v>19.0</v>
@@ -39889,7 +39886,7 @@
         <v>138</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R85" s="7">
         <v>20.6</v>
@@ -39900,7 +39897,7 @@
         <v>138</v>
       </c>
       <c r="V85" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W85" s="7">
         <v>5.9</v>
@@ -39911,7 +39908,7 @@
         <v>139</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C86" s="5">
         <v>14.2</v>
@@ -39922,7 +39919,7 @@
         <v>139</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H86" s="7">
         <v>10.7</v>
@@ -39933,7 +39930,7 @@
         <v>139</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M86" s="7">
         <v>19.8</v>
@@ -39944,7 +39941,7 @@
         <v>139</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R86" s="7">
         <v>19.8</v>
@@ -39955,7 +39952,7 @@
         <v>139</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W86" s="7">
         <v>6.7</v>
@@ -39966,7 +39963,7 @@
         <v>32</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="5">
         <v>19.6</v>
@@ -39977,7 +39974,7 @@
         <v>32</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H87" s="7">
         <v>9.4</v>
@@ -39988,7 +39985,7 @@
         <v>32</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M87" s="7">
         <v>16.4</v>
@@ -39999,7 +39996,7 @@
         <v>32</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R87" s="7">
         <v>20.2</v>
@@ -40010,7 +40007,7 @@
         <v>32</v>
       </c>
       <c r="V87" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W87" s="7">
         <v>8.1</v>
@@ -40021,7 +40018,7 @@
         <v>142</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" s="5">
         <v>18.7</v>
@@ -40032,7 +40029,7 @@
         <v>142</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H88" s="7">
         <v>11.6</v>
@@ -40043,7 +40040,7 @@
         <v>142</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M88" s="7">
         <v>21.8</v>
@@ -40054,7 +40051,7 @@
         <v>142</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R88" s="7">
         <v>21.4</v>
@@ -40065,7 +40062,7 @@
         <v>142</v>
       </c>
       <c r="V88" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W88" s="7">
         <v>7.1</v>
@@ -40076,7 +40073,7 @@
         <v>147</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="5">
         <v>17.4</v>
@@ -40087,7 +40084,7 @@
         <v>147</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H89" s="7">
         <v>4.6</v>
@@ -40098,7 +40095,7 @@
         <v>147</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M89" s="7">
         <v>21.6</v>
@@ -40109,7 +40106,7 @@
         <v>147</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R89" s="7">
         <v>12.7</v>
@@ -40120,7 +40117,7 @@
         <v>147</v>
       </c>
       <c r="V89" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W89" s="7">
         <v>6.6</v>
@@ -40131,7 +40128,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C90" s="5">
         <v>24.9</v>
@@ -40142,7 +40139,7 @@
         <v>59</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H90" s="7">
         <v>11.7</v>
@@ -40153,7 +40150,7 @@
         <v>59</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M90" s="7">
         <v>17.0</v>
@@ -40164,7 +40161,7 @@
         <v>59</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R90" s="7">
         <v>15.2</v>
@@ -40175,7 +40172,7 @@
         <v>59</v>
       </c>
       <c r="V90" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W90" s="7">
         <v>8.2</v>
@@ -40186,7 +40183,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C91" s="5">
         <v>23.2</v>
@@ -40197,7 +40194,7 @@
         <v>33</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H91" s="7">
         <v>8.0</v>
@@ -40208,7 +40205,7 @@
         <v>33</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M91" s="7">
         <v>17.2</v>
@@ -40219,7 +40216,7 @@
         <v>33</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R91" s="7">
         <v>18.1</v>
@@ -40230,7 +40227,7 @@
         <v>33</v>
       </c>
       <c r="V91" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W91" s="7">
         <v>9.7</v>
@@ -40241,7 +40238,7 @@
         <v>38</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C92" s="5">
         <v>23.9</v>
@@ -40252,7 +40249,7 @@
         <v>38</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H92" s="7">
         <v>8.1</v>
@@ -40263,7 +40260,7 @@
         <v>38</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M92" s="7">
         <v>14.0</v>
@@ -40274,7 +40271,7 @@
         <v>38</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R92" s="7">
         <v>18.4</v>
@@ -40285,7 +40282,7 @@
         <v>38</v>
       </c>
       <c r="V92" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W92" s="7">
         <v>6.5</v>
@@ -40296,7 +40293,7 @@
         <v>61</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C93" s="5">
         <v>24.1</v>
@@ -40307,7 +40304,7 @@
         <v>61</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H93" s="7">
         <v>8.5</v>
@@ -40318,7 +40315,7 @@
         <v>61</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M93" s="7">
         <v>16.0</v>
@@ -40329,7 +40326,7 @@
         <v>61</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R93" s="7">
         <v>19.3</v>
@@ -40340,7 +40337,7 @@
         <v>61</v>
       </c>
       <c r="V93" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W93" s="7">
         <v>6.3</v>
@@ -40351,7 +40348,7 @@
         <v>31</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C94" s="5">
         <v>22.3</v>
@@ -40362,7 +40359,7 @@
         <v>31</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H94" s="7">
         <v>6.4</v>
@@ -40373,7 +40370,7 @@
         <v>31</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M94" s="7">
         <v>20.9</v>
@@ -40384,7 +40381,7 @@
         <v>31</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R94" s="7">
         <v>18.0</v>
@@ -40395,7 +40392,7 @@
         <v>31</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W94" s="7">
         <v>6.3</v>
